--- a/data/Контрольная работа № 1 (Общая экология 2023)(1-111) (1).xlsx
+++ b/data/Контрольная работа № 1 (Общая экология 2023)(1-111) (1).xlsx
@@ -2639,14 +2639,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3108,26 +3101,29 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3136,125 +3132,123 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3879,8 +3873,8 @@
   <sheetPr/>
   <dimension ref="A1:BU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19610,7 +19604,7 @@
       <c r="BU91" s="1"/>
     </row>
     <row r="92" spans="1:73">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>703</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -23386,6 +23380,9 @@
       <c r="BU113" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A92" r:id="rId2" display="st209862@ad.pu.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/Контрольная работа № 1 (Общая экология 2023)(1-111) (1).xlsx
+++ b/data/Контрольная работа № 1 (Общая экология 2023)(1-111) (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="879">
   <si>
     <t>Почта</t>
   </si>
@@ -2627,6 +2627,36 @@
   </si>
   <si>
     <t>Этот организм может обитать только в очень ограниченном наборе местообитаний.;Этот организм менее конкурентоспособен, чем эвритермный вид.;У этого организма величина диапазона толерантности будет меньше, чем у эвритермного организма;</t>
+  </si>
+  <si>
+    <t>st123859@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Екатерина Галкина</t>
+  </si>
+  <si>
+    <t>st123832@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Елизавета Стародубова</t>
+  </si>
+  <si>
+    <t>st123950@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Владислава Ягодская</t>
+  </si>
+  <si>
+    <t>st123831@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>София Дмитровская</t>
+  </si>
+  <si>
+    <t>st123949@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Михаил Бабин</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2669,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2651,6 +2681,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2792,7 +2829,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2803,6 +2840,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -2992,12 +3035,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3117,13 +3171,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3132,37 +3183,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3177,78 +3228,85 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3871,10 +3929,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BU113"/>
+  <dimension ref="A1:BU119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -23378,6 +23436,72 @@
         <v>1</v>
       </c>
       <c r="BU113" s="1"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C115" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C116" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C117" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C118" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C119" s="5">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
